--- a/data/RevA/RevA_unq_seqs.xlsx
+++ b/data/RevA/RevA_unq_seqs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoa/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ndusbpos-my.sharepoint.com/personal/hoa_t_nguyen_ndus_edu/Documents/Rstudio-projects/OspC/GitHub files/data/RevA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21A5BA9-2081-BF45-B2DC-70EC74F8C1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E21A5BA9-2081-BF45-B2DC-70EC74F8C1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A7CBF56-4373-DE4B-92D5-02A68F571A30}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="2300" windowWidth="27640" windowHeight="16940" xr2:uid="{D7FDE59B-79AE-1B40-91B8-56A9A44CDB51}"/>
   </bookViews>
@@ -692,112 +692,112 @@
     <t>MRNKNIFKLFFVSMLFIMACKAYVEEKKQVDSLMEGISKLQNDSSKDTFKDYKDKINKLKEGLKDVGNAELEEKLLALEKLFKDKLAAKLAALKAAKDKINGYTDNDTNKNNIWAEAKLVGVTIKFSGSNTAGKGAEMSKEAVEQIEKIIKFLEEGTN</t>
   </si>
   <si>
-    <t>revA_1</t>
-  </si>
-  <si>
-    <t>revA_2</t>
-  </si>
-  <si>
-    <t>revA_3</t>
-  </si>
-  <si>
-    <t>revA_4</t>
-  </si>
-  <si>
-    <t>revA_5</t>
-  </si>
-  <si>
-    <t>revA_6</t>
-  </si>
-  <si>
-    <t>revA_7</t>
-  </si>
-  <si>
-    <t>revA_8</t>
-  </si>
-  <si>
-    <t>revA_9</t>
-  </si>
-  <si>
-    <t>revA_10</t>
-  </si>
-  <si>
-    <t>revA_11</t>
-  </si>
-  <si>
-    <t>revA_12</t>
-  </si>
-  <si>
-    <t>revA_13</t>
-  </si>
-  <si>
-    <t>revA_14</t>
-  </si>
-  <si>
-    <t>revA_15</t>
-  </si>
-  <si>
-    <t>revA_16</t>
-  </si>
-  <si>
-    <t>revA_17</t>
-  </si>
-  <si>
-    <t>revA_18</t>
-  </si>
-  <si>
-    <t>revA_19</t>
-  </si>
-  <si>
-    <t>revA_20</t>
-  </si>
-  <si>
-    <t>revA_21</t>
-  </si>
-  <si>
-    <t>revA_22</t>
-  </si>
-  <si>
-    <t>revA_23</t>
-  </si>
-  <si>
-    <t>revA_24</t>
-  </si>
-  <si>
-    <t>revA_25</t>
-  </si>
-  <si>
-    <t>revA_26</t>
-  </si>
-  <si>
-    <t>revA_27</t>
-  </si>
-  <si>
-    <t>revA_28</t>
-  </si>
-  <si>
-    <t>revA_29</t>
-  </si>
-  <si>
-    <t>revA_30</t>
-  </si>
-  <si>
-    <t>revA_31</t>
-  </si>
-  <si>
-    <t>revA_32</t>
-  </si>
-  <si>
-    <t>revA_33</t>
-  </si>
-  <si>
-    <t>revA_34</t>
-  </si>
-  <si>
-    <t>revA_35</t>
-  </si>
-  <si>
-    <t>revA_36</t>
+    <t>RevA_1</t>
+  </si>
+  <si>
+    <t>RevA_2</t>
+  </si>
+  <si>
+    <t>RevA_3</t>
+  </si>
+  <si>
+    <t>RevA_4</t>
+  </si>
+  <si>
+    <t>RevA_5</t>
+  </si>
+  <si>
+    <t>RevA_6</t>
+  </si>
+  <si>
+    <t>RevA_7</t>
+  </si>
+  <si>
+    <t>RevA_8</t>
+  </si>
+  <si>
+    <t>RevA_9</t>
+  </si>
+  <si>
+    <t>RevA_10</t>
+  </si>
+  <si>
+    <t>RevA_11</t>
+  </si>
+  <si>
+    <t>RevA_12</t>
+  </si>
+  <si>
+    <t>RevA_13</t>
+  </si>
+  <si>
+    <t>RevA_14</t>
+  </si>
+  <si>
+    <t>RevA_15</t>
+  </si>
+  <si>
+    <t>RevA_16</t>
+  </si>
+  <si>
+    <t>RevA_17</t>
+  </si>
+  <si>
+    <t>RevA_18</t>
+  </si>
+  <si>
+    <t>RevA_19</t>
+  </si>
+  <si>
+    <t>RevA_20</t>
+  </si>
+  <si>
+    <t>RevA_21</t>
+  </si>
+  <si>
+    <t>RevA_22</t>
+  </si>
+  <si>
+    <t>RevA_23</t>
+  </si>
+  <si>
+    <t>RevA_24</t>
+  </si>
+  <si>
+    <t>RevA_25</t>
+  </si>
+  <si>
+    <t>RevA_26</t>
+  </si>
+  <si>
+    <t>RevA_27</t>
+  </si>
+  <si>
+    <t>RevA_28</t>
+  </si>
+  <si>
+    <t>RevA_29</t>
+  </si>
+  <si>
+    <t>RevA_30</t>
+  </si>
+  <si>
+    <t>RevA_31</t>
+  </si>
+  <si>
+    <t>RevA_32</t>
+  </si>
+  <si>
+    <t>RevA_33</t>
+  </si>
+  <si>
+    <t>RevA_34</t>
+  </si>
+  <si>
+    <t>RevA_35</t>
+  </si>
+  <si>
+    <t>RevA_36</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1194,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
